--- a/tests/integration/models/2b - planning_discounting/sets.xlsx
+++ b/tests/integration/models/2b - planning_discounting/sets.xlsx
@@ -5,28 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\pyesm\default\2 - planning\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\pyesm\default\2b - planning_discounting\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CB785E-CE78-4AB4-A5EE-93B17105A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18753DAE-34CC-4887-8C7D-505BD8BF09FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_set_SCENARIOS" sheetId="1" r:id="rId1"/>
     <sheet name="_set_TECHS" sheetId="2" r:id="rId2"/>
     <sheet name="_set_FLOWS" sheetId="3" r:id="rId3"/>
-    <sheet name="_set_FLOWS_AGG" sheetId="4" r:id="rId4"/>
-    <sheet name="_set_YEARS" sheetId="5" r:id="rId5"/>
-    <sheet name="_set_LOADFACTORS" sheetId="6" r:id="rId6"/>
-    <sheet name="_set_Costs" sheetId="7" r:id="rId7"/>
+    <sheet name="_set_YEARS" sheetId="4" r:id="rId4"/>
+    <sheet name="_set_LOADFACTORS" sheetId="5" r:id="rId5"/>
+    <sheet name="_set_Costs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>scenario_Names</t>
   </si>
@@ -37,12 +36,6 @@
     <t>flows_Names</t>
   </si>
   <si>
-    <t>flows_Agg</t>
-  </si>
-  <si>
-    <t>flows_agg_Names</t>
-  </si>
-  <si>
     <t>y_Names</t>
   </si>
   <si>
@@ -61,22 +54,10 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>Fossil PP</t>
-  </si>
-  <si>
-    <t>RES PP</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>EE Fossil</t>
-  </si>
-  <si>
-    <t>EE RES</t>
-  </si>
-  <si>
-    <t>EE</t>
+    <t>Power plant</t>
+  </si>
+  <si>
+    <t>Electricity</t>
   </si>
   <si>
     <t>y.1</t>
@@ -100,13 +81,13 @@
     <t>max</t>
   </si>
   <si>
-    <t>investment</t>
+    <t>Investment costs</t>
+  </si>
+  <si>
+    <t>O&amp;M costs</t>
   </si>
   <si>
     <t>inv</t>
-  </si>
-  <si>
-    <t>o&amp;m</t>
   </si>
   <si>
     <t>om</t>
@@ -476,7 +457,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +469,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -498,10 +479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +494,59 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -526,32 +560,42 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -559,93 +603,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -657,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,57 +634,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
